--- a/3_Component_Results/TRDBAL/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.6945316142291066</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2103628180572122</v>
       </c>
       <c r="D2">
-        <v>-0.5957143276302934</v>
+        <v>-0.5445742289801792</v>
       </c>
       <c r="E2">
-        <v>-0.04126084242863966</v>
+        <v>1.649195601823524</v>
       </c>
       <c r="F2">
-        <v>0.1950156006509583</v>
+        <v>1.939470983457267</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.05114009865011426</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.690456444252163</v>
       </c>
       <c r="D3">
-        <v>0.5474924224538673</v>
+        <v>2.291947805260176</v>
       </c>
       <c r="E3">
-        <v>0.7609873423967437</v>
+        <v>2.322941629478642</v>
       </c>
       <c r="F3">
-        <v>0.3137410363667199</v>
+        <v>-1.830493192148062</v>
       </c>
       <c r="G3">
-        <v>-0.07900064280807767</v>
+        <v>0.4490046210795488</v>
       </c>
       <c r="H3">
-        <v>-0.4538790687739499</v>
+        <v>-1.754915860385852</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.744455382806309</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.561954287081898</v>
       </c>
       <c r="D4">
-        <v>-0.2005150080849697</v>
+        <v>-2.344749236599752</v>
       </c>
       <c r="E4">
-        <v>-0.3510606376557288</v>
+        <v>0.1769446262318977</v>
       </c>
       <c r="F4">
-        <v>-0.6558529851906512</v>
+        <v>-1.956889776802553</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-2.144234228514782</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.5280052638876265</v>
       </c>
       <c r="D5">
-        <v>-0.2923749427708632</v>
+        <v>-1.593411734382765</v>
       </c>
       <c r="E5">
-        <v>-0.2408154723348125</v>
+        <v>1.049026178229147</v>
       </c>
       <c r="F5">
-        <v>-1.047198213482036</v>
+        <v>-0.7824510563527671</v>
       </c>
       <c r="G5">
-        <v>-0.3625649168947464</v>
+        <v>-0.1441541880888198</v>
       </c>
       <c r="H5">
-        <v>0.1206584184833766</v>
+        <v>-0.3865776622619923</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1.301036791611902</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.28984165056396</v>
       </c>
       <c r="D6">
-        <v>-0.9078984843853092</v>
+        <v>-0.6431513272560402</v>
       </c>
       <c r="E6">
-        <v>-0.3617205224250877</v>
+        <v>-0.1433097936191611</v>
       </c>
       <c r="F6">
-        <v>0.1129393213125984</v>
+        <v>-0.3942967594327705</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.264747157129269</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2184107288059266</v>
       </c>
       <c r="D7">
-        <v>0.02811724620334755</v>
+        <v>-0.4791188345420213</v>
       </c>
       <c r="E7">
-        <v>0.1479273065903083</v>
+        <v>-0.3240821062975808</v>
       </c>
       <c r="F7">
-        <v>-0.1347867653084931</v>
+        <v>0.06521323469150679</v>
       </c>
       <c r="G7">
-        <v>0.06762071377009105</v>
+        <v>0.01983498341556333</v>
       </c>
       <c r="H7">
-        <v>0.4402734837222156</v>
+        <v>0.5402734837222156</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.5072360807453689</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.4720094128878891</v>
       </c>
       <c r="D8">
-        <v>-0.2</v>
+        <v>-9.71445146547012E-17</v>
       </c>
       <c r="E8">
-        <v>-0.03167648902797961</v>
+        <v>-0.0794622193825073</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.0477857303545277</v>
       </c>
       <c r="D9">
-        <v>0.3639869465896599</v>
+        <v>0.4639869465896599</v>
       </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="F9">
-        <v>0.4250771958952345</v>
+        <v>-0.6749228041047655</v>
       </c>
       <c r="G9">
-        <v>0.2589879961961709</v>
+        <v>-0.2410120038038291</v>
       </c>
       <c r="H9">
-        <v>0.4358685032995328</v>
+        <v>0.7358685032995328</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E10">
-        <v>0.2127951113324756</v>
+        <v>-0.2872048886675244</v>
       </c>
       <c r="F10">
-        <v>0.4027743565091521</v>
+        <v>0.7027743565091521</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11">
         <v>-0.3</v>
       </c>
       <c r="F11">
-        <v>-0.09999999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="G11">
-        <v>0.007919166537585065</v>
+        <v>0.4079191665375851</v>
       </c>
       <c r="H11">
-        <v>-0.2011422248794972</v>
+        <v>-0.7011422248794972</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="E12">
-        <v>-0.008748979543006241</v>
+        <v>0.3912510204569938</v>
       </c>
       <c r="F12">
-        <v>-0.254548270382321</v>
+        <v>-0.754548270382321</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.00411440483221992</v>
+        <v>-0.20411440483222</v>
       </c>
       <c r="H13">
-        <v>0.1867771959663355</v>
+        <v>0.2867771959663355</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.02018331725016664</v>
+        <v>-0.2201833172501667</v>
       </c>
       <c r="F14">
-        <v>0.1499791286330684</v>
+        <v>0.2499791286330684</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="D15">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="E15">
         <v>0.09999999999999991</v>
       </c>
-      <c r="E15">
-        <v>-0.2000000000000001</v>
-      </c>
       <c r="F15">
-        <v>-0.4</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="G15">
-        <v>-0.03806149545539017</v>
+        <v>0.3619385045446099</v>
       </c>
       <c r="H15">
-        <v>0.2481086974607088</v>
+        <v>0.4440258437269816</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>-0.2999999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="E16">
-        <v>-0.02921599406344</v>
+        <v>0.37078400593656</v>
       </c>
       <c r="F16">
-        <v>0.2332121705005171</v>
+        <v>0.4291293167667899</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>0.4040828537337272</v>
+        <v>0.6</v>
       </c>
       <c r="E17">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G17">
-        <v>-0.04796962815746098</v>
+        <v>0.352030371842539</v>
       </c>
       <c r="H17">
-        <v>0.01821427938013393</v>
+        <v>0.2025233107720449</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.1959171462662728</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>-2.775557561562891E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
-        <v>0.015690968608089</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>-0.05096808056002433</v>
+        <v>-0.4</v>
       </c>
       <c r="H18">
-        <v>-0.2151519277310885</v>
+        <v>0.4</v>
       </c>
       <c r="I18">
-        <v>-0.08930479812085486</v>
+        <v>-0.382481144815657</v>
       </c>
       <c r="J18">
-        <v>-0.02423669571095466</v>
+        <v>-0.479917721171199</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D19">
-        <v>0.015690968608089</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
-        <v>-0.05096808056002433</v>
+        <v>-0.4</v>
       </c>
       <c r="F19">
-        <v>-0.2151519277310885</v>
+        <v>0.4</v>
       </c>
       <c r="G19">
-        <v>-0.1068236533051979</v>
+        <v>-0.4</v>
       </c>
       <c r="H19">
-        <v>-0.04431897453975564</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.184309031391911</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.3490319194399757</v>
       </c>
       <c r="D20">
-        <v>-0.1710072740859299</v>
+        <v>0.4441446536451586</v>
       </c>
       <c r="E20">
-        <v>-0.07652075248928282</v>
+        <v>-0.3696970991840849</v>
       </c>
       <c r="F20">
-        <v>-0.03247104153453839</v>
+        <v>-0.4881520669947828</v>
       </c>
       <c r="G20">
-        <v>-0.06795458808129562</v>
+        <v>0.1232798963004633</v>
       </c>
       <c r="H20">
-        <v>0.2951050663156792</v>
+        <v>0.4234449690039844</v>
       </c>
       <c r="I20">
-        <v>-0.1965241172475423</v>
+        <v>1.032457285035994</v>
       </c>
       <c r="J20">
-        <v>-0.189510852044761</v>
+        <v>0.01048914795523898</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.6151519277310885</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.2931763466948021</v>
       </c>
       <c r="D21">
-        <v>-0.04465541081895696</v>
+        <v>-0.5003364362792013</v>
       </c>
       <c r="E21">
-        <v>-0.05831423140580782</v>
+        <v>0.1329202529759511</v>
       </c>
       <c r="F21">
-        <v>0.2974145915996678</v>
+        <v>0.425754494287973</v>
       </c>
       <c r="G21">
-        <v>-0.1940966703663813</v>
+        <v>1.034884731917155</v>
       </c>
       <c r="H21">
-        <v>-0.1862702362542826</v>
+        <v>0.01372976374571738</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.4556810254602444</v>
       </c>
       <c r="C22">
-        <v>0.1226310314439689</v>
+        <v>0.3138655158257279</v>
       </c>
       <c r="D22">
-        <v>0.3860879326403377</v>
+        <v>0.5144278353286429</v>
       </c>
       <c r="E22">
-        <v>-0.1924759767608619</v>
+        <v>1.036505425522674</v>
       </c>
       <c r="F22">
-        <v>-0.1675652264791115</v>
+        <v>0.03243477352088853</v>
       </c>
       <c r="G22">
-        <v>0.2134775182886516</v>
+        <v>-0.1646508830073682</v>
       </c>
       <c r="H22">
-        <v>0.3401474412755328</v>
+        <v>0.5401474412755328</v>
       </c>
       <c r="I22">
-        <v>-0.01662366490286982</v>
+        <v>-0.4515687328697356</v>
       </c>
       <c r="J22">
-        <v>-0.07400252618410362</v>
+        <v>0.62835724284007</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.191234484381759</v>
       </c>
       <c r="C23">
-        <v>0.3960500505563128</v>
+        <v>0.524389953244618</v>
       </c>
       <c r="D23">
-        <v>-0.1889464869572649</v>
+        <v>1.040034915326271</v>
       </c>
       <c r="E23">
-        <v>-0.1702048983388355</v>
+        <v>0.0297951016611645</v>
       </c>
       <c r="F23">
-        <v>0.2163892709941469</v>
+        <v>-0.1617391303018729</v>
       </c>
       <c r="G23">
-        <v>0.3425821084835898</v>
+        <v>0.5425821084835898</v>
       </c>
       <c r="H23">
-        <v>-0.01443329563526707</v>
+        <v>-0.4493783636021329</v>
       </c>
       <c r="I23">
-        <v>-0.07134056154307926</v>
+        <v>0.6310192074810944</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1283399026883052</v>
       </c>
       <c r="C24">
-        <v>-0.1590349628483912</v>
+        <v>1.069946439435145</v>
       </c>
       <c r="D24">
-        <v>-0.1698366070777498</v>
+        <v>0.03016339292225023</v>
       </c>
       <c r="E24">
-        <v>0.2019436602668451</v>
+        <v>-0.1761847410291747</v>
       </c>
       <c r="F24">
-        <v>0.3259379121631296</v>
+        <v>0.5259379121631296</v>
       </c>
       <c r="G24">
-        <v>-0.03573328647055057</v>
+        <v>-0.4706783544374164</v>
       </c>
       <c r="H24">
-        <v>-0.09271375926292456</v>
+        <v>0.6096460097612491</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,28 +1171,28 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.228981402283536</v>
       </c>
       <c r="C25">
-        <v>-0.05327447019195772</v>
+        <v>0.1467255298080423</v>
       </c>
       <c r="D25">
-        <v>0.200677417897488</v>
+        <v>-0.1774509833985318</v>
       </c>
       <c r="E25">
-        <v>0.3229500875209663</v>
+        <v>0.5229500875209663</v>
       </c>
       <c r="F25">
-        <v>-0.04940442358589836</v>
+        <v>-0.4843494915527642</v>
       </c>
       <c r="G25">
-        <v>-0.1005858556160135</v>
+        <v>0.6017739134081601</v>
       </c>
       <c r="H25">
-        <v>0.5390974313280812</v>
+        <v>0.7965668651186684</v>
       </c>
       <c r="I25">
-        <v>5.398161589704258</v>
+        <v>2.798161589704257</v>
       </c>
       <c r="J25">
         <v>-2.029890282469274</v>
@@ -1206,25 +1206,25 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
-        <v>0.2781284012960198</v>
+        <v>-0.1</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>-0.06505493203313417</v>
+        <v>-0.5</v>
       </c>
       <c r="F26">
-        <v>-0.1023597690241737</v>
+        <v>0.6</v>
       </c>
       <c r="G26">
-        <v>0.5425305662094128</v>
+        <v>0.8</v>
       </c>
       <c r="H26">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="I26">
         <v>-2.03040224812923</v>
@@ -1238,22 +1238,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-0.3781284012960198</v>
       </c>
       <c r="C27">
-        <v>0.4143801122861683</v>
+        <v>0.6143801122861683</v>
       </c>
       <c r="D27">
-        <v>-0.0459573133732275</v>
+        <v>-0.4809023813400933</v>
       </c>
       <c r="E27">
-        <v>-0.1100620548896843</v>
+        <v>0.5922977141344893</v>
       </c>
       <c r="F27">
-        <v>0.532544005723947</v>
+        <v>0.7900134395145342</v>
       </c>
       <c r="G27">
-        <v>5.393803210748177</v>
+        <v>2.793803210748177</v>
       </c>
       <c r="H27">
         <v>-2.033642128361433</v>
@@ -1267,19 +1267,19 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.03494506796686583</v>
+        <v>-0.4</v>
       </c>
       <c r="D28">
-        <v>-0.1023597690241737</v>
+        <v>0.6</v>
       </c>
       <c r="E28">
-        <v>0.5425305662094128</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="G28">
         <v>-2.03040224812923</v>
@@ -1293,16 +1293,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.4349450679668658</v>
       </c>
       <c r="C29">
-        <v>-0.0587245977134445</v>
+        <v>0.6436351713107291</v>
       </c>
       <c r="D29">
-        <v>0.5275408790505243</v>
+        <v>0.7850103128411116</v>
       </c>
       <c r="E29">
-        <v>5.393691431320906</v>
+        <v>2.793691431320905</v>
       </c>
       <c r="F29">
         <v>-2.03684683614573</v>
@@ -1328,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.7023597690241736</v>
       </c>
       <c r="C30">
-        <v>0.4828595733561153</v>
+        <v>0.7403290071467026</v>
       </c>
       <c r="D30">
-        <v>5.396086438208884</v>
+        <v>2.796086438208883</v>
       </c>
       <c r="E30">
         <v>-2.035923242904765</v>
@@ -1360,10 +1360,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.2574694337905873</v>
       </c>
       <c r="C31">
-        <v>4.804570906693543</v>
+        <v>2.204570906693543</v>
       </c>
       <c r="D31">
         <v>-2.056986760396046</v>
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-2.600000000000001</v>
       </c>
       <c r="C32">
         <v>0.2695977518707697</v>

--- a/3_Component_Results/TRDBAL/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>2.798161589704257</v>
       </c>
       <c r="J25">
-        <v>-2.029890282469274</v>
+        <v>-3.899488034340044</v>
       </c>
       <c r="K25">
-        <v>-0.4438822752334357</v>
+        <v>-0.609977258504002</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>2.8</v>
       </c>
       <c r="I26">
-        <v>-2.03040224812923</v>
+        <v>-3.9</v>
       </c>
       <c r="J26">
-        <v>-0.4339050167294337</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>2.793803210748177</v>
       </c>
       <c r="H27">
-        <v>-2.033642128361433</v>
+        <v>-3.903239880232202</v>
       </c>
       <c r="I27">
-        <v>-0.4489396980242008</v>
+        <v>-0.615034681294767</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>2.8</v>
       </c>
       <c r="G28">
-        <v>-2.03040224812923</v>
+        <v>-3.9</v>
       </c>
       <c r="H28">
-        <v>-0.4339050167294337</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>2.793691431320905</v>
       </c>
       <c r="F29">
-        <v>-2.03684683614573</v>
+        <v>-3.9064445880165</v>
       </c>
       <c r="G29">
-        <v>-0.4549578800859438</v>
+        <v>-0.6210528633565101</v>
       </c>
       <c r="H29">
-        <v>-1.214304600375388</v>
+        <v>0.5827860798955309</v>
       </c>
       <c r="I29">
-        <v>0.6342287678203709</v>
+        <v>0.5900589890103957</v>
       </c>
       <c r="J29">
-        <v>-0.4991847868727558</v>
+        <v>0.1909563168408745</v>
       </c>
       <c r="K29">
-        <v>0.06649197495200757</v>
+        <v>-0.2244894315121023</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>2.796086438208883</v>
       </c>
       <c r="E30">
-        <v>-2.035923242904765</v>
+        <v>-3.905520994775534</v>
       </c>
       <c r="F30">
-        <v>-0.4512797390810504</v>
+        <v>-0.6173747223516166</v>
       </c>
       <c r="G30">
-        <v>-1.259032843716308</v>
+        <v>0.5380578365546109</v>
       </c>
       <c r="H30">
-        <v>0.6363817590025365</v>
+        <v>0.5922119801925614</v>
       </c>
       <c r="I30">
-        <v>-0.4986283684616838</v>
+        <v>0.1915127352519465</v>
       </c>
       <c r="J30">
-        <v>0.07010509672511248</v>
+        <v>-0.2208763097389974</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>2.204570906693543</v>
       </c>
       <c r="D31">
-        <v>-2.056986760396046</v>
+        <v>-3.926584512266816</v>
       </c>
       <c r="E31">
-        <v>-0.1504477025072188</v>
+        <v>-0.3165426857777851</v>
       </c>
       <c r="F31">
-        <v>-1.253648091087059</v>
+        <v>0.5434425891838602</v>
       </c>
       <c r="G31">
-        <v>0.6324933578475257</v>
+        <v>0.5883235790375505</v>
       </c>
       <c r="H31">
-        <v>-0.5026494012761732</v>
+        <v>0.1874917024374571</v>
       </c>
       <c r="I31">
-        <v>0.066331170727394</v>
+        <v>-0.2246502357367159</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>-2.600000000000001</v>
       </c>
       <c r="C32">
-        <v>0.2695977518707697</v>
+        <v>-1.6</v>
       </c>
       <c r="D32">
-        <v>2.066094983270566</v>
+        <v>1.9</v>
       </c>
       <c r="E32">
-        <v>-0.09709068027091883</v>
+        <v>1.7</v>
       </c>
       <c r="F32">
-        <v>0.7441697788099751</v>
+        <v>0.7</v>
       </c>
       <c r="G32">
-        <v>-0.4901411037136303</v>
+        <v>0.2</v>
       </c>
       <c r="H32">
-        <v>0.09098140646410988</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.86959775187077</v>
       </c>
       <c r="C33">
-        <v>0.5130908799492523</v>
+        <v>0.346995896678686</v>
       </c>
       <c r="D33">
-        <v>-0.5637184284497846</v>
+        <v>1.233372251821134</v>
       </c>
       <c r="E33">
-        <v>0.7858613253983571</v>
+        <v>0.7416915465883819</v>
       </c>
       <c r="F33">
-        <v>-0.3842729154208906</v>
+        <v>0.3058681882927397</v>
       </c>
       <c r="G33">
-        <v>0.0622942515737179</v>
+        <v>-0.228687154890392</v>
       </c>
       <c r="H33">
-        <v>0.3626715499348748</v>
+        <v>1.36737992645831</v>
       </c>
       <c r="I33">
-        <v>0.2001618645020491</v>
+        <v>0.5620836556526756</v>
       </c>
       <c r="J33">
-        <v>0.01734785818441933</v>
+        <v>0.09223203051751802</v>
       </c>
       <c r="K33">
-        <v>-0.6957729814036642</v>
+        <v>-0.1080906423023146</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-0.1660949832705663</v>
       </c>
       <c r="C34">
-        <v>-1.419309128818947</v>
+        <v>0.3777815514519718</v>
       </c>
       <c r="D34">
-        <v>0.9165728755002797</v>
+        <v>0.8724030966903045</v>
       </c>
       <c r="E34">
-        <v>-0.5958980487770968</v>
+        <v>0.09424305493653341</v>
       </c>
       <c r="F34">
-        <v>0.03351434627448844</v>
+        <v>-0.2574670601896215</v>
       </c>
       <c r="G34">
-        <v>0.4099576015730438</v>
+        <v>1.414665978096479</v>
       </c>
       <c r="H34">
-        <v>0.2295405502282227</v>
+        <v>0.5914623413788491</v>
       </c>
       <c r="I34">
-        <v>0.04027126358377167</v>
+        <v>0.1151554359168704</v>
       </c>
       <c r="J34">
-        <v>-0.6726229219203476</v>
+        <v>-0.08494058281899805</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.797090680270919</v>
       </c>
       <c r="C35">
-        <v>0.559706529838136</v>
+        <v>0.5155367510281608</v>
       </c>
       <c r="D35">
-        <v>-1.160742964514247</v>
+        <v>-0.4706018608006168</v>
       </c>
       <c r="E35">
-        <v>-0.1790588274336464</v>
+        <v>-0.4700402338977563</v>
       </c>
       <c r="F35">
-        <v>0.4262223204448879</v>
+        <v>1.430930696968323</v>
       </c>
       <c r="G35">
-        <v>0.2270641292583085</v>
+        <v>0.588985920408935</v>
       </c>
       <c r="H35">
-        <v>0.00457169120413151</v>
+        <v>0.07945586353723019</v>
       </c>
       <c r="I35">
-        <v>-0.6756186064004372</v>
+        <v>-0.08793626729908774</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.04416977880997519</v>
       </c>
       <c r="C36">
-        <v>-1.057048620202842</v>
+        <v>-0.3669075164892119</v>
       </c>
       <c r="D36">
-        <v>0.09254909363414807</v>
+        <v>-0.1984323128299618</v>
       </c>
       <c r="E36">
-        <v>0.4393688022212741</v>
+        <v>1.444077178744709</v>
       </c>
       <c r="F36">
-        <v>0.2136793595950603</v>
+        <v>0.5756011507456867</v>
       </c>
       <c r="G36">
-        <v>-0.009569415134215144</v>
+        <v>0.06531475719888355</v>
       </c>
       <c r="H36">
-        <v>-0.6915258056381423</v>
+        <v>-0.1038434665367927</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.6901411037136302</v>
       </c>
       <c r="C37">
-        <v>-0.1339692782808898</v>
+        <v>-0.4249506847449998</v>
       </c>
       <c r="D37">
-        <v>0.6497108292139466</v>
+        <v>1.654419205737382</v>
       </c>
       <c r="E37">
-        <v>0.4082979854512605</v>
+        <v>0.770219776601887</v>
       </c>
       <c r="F37">
-        <v>0.01199750102085614</v>
+        <v>0.08688167335395483</v>
       </c>
       <c r="G37">
-        <v>-0.6657177096551867</v>
+        <v>-0.07803537055383716</v>
       </c>
       <c r="H37">
-        <v>-0.3549335343731495</v>
+        <v>-0.6828718050224349</v>
       </c>
       <c r="I37">
-        <v>0.1270372787205301</v>
+        <v>0.6147117472547672</v>
       </c>
       <c r="J37">
-        <v>0.1535693433465944</v>
+        <v>-0.18522021654496</v>
       </c>
       <c r="K37">
-        <v>-0.1065241723456095</v>
+        <v>0.01485613646721295</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.2909814064641099</v>
       </c>
       <c r="C38">
-        <v>0.600754598860507</v>
+        <v>1.605462975383942</v>
       </c>
       <c r="D38">
-        <v>0.4626845363018076</v>
+        <v>0.8246063274524341</v>
       </c>
       <c r="E38">
-        <v>0.2627204397280259</v>
+        <v>0.3376046120611246</v>
       </c>
       <c r="F38">
-        <v>-0.4658662298686745</v>
+        <v>0.121816109232675</v>
       </c>
       <c r="G38">
-        <v>-0.2271703717286425</v>
+        <v>-0.5551086423779279</v>
       </c>
       <c r="H38">
-        <v>0.1236602061091567</v>
+        <v>0.6113346746433939</v>
       </c>
       <c r="I38">
-        <v>0.1501541895191506</v>
+        <v>-0.1886353703724037</v>
       </c>
       <c r="J38">
-        <v>-0.1099768061858088</v>
+        <v>0.01140350262701373</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.004708376523435</v>
       </c>
       <c r="C39">
-        <v>0.405268623748686</v>
+        <v>0.7671904148993125</v>
       </c>
       <c r="D39">
-        <v>0.2905851359773536</v>
+        <v>0.3654693083104523</v>
       </c>
       <c r="E39">
-        <v>-0.4759943297567585</v>
+        <v>0.1116880093445911</v>
       </c>
       <c r="F39">
-        <v>-0.2695497927765953</v>
+        <v>-0.5974880634258808</v>
       </c>
       <c r="G39">
-        <v>0.1219037422609365</v>
+        <v>0.6095782107951735</v>
       </c>
       <c r="H39">
-        <v>0.1483785963585282</v>
+        <v>-0.1904109635330261</v>
       </c>
       <c r="I39">
-        <v>-0.1117540098542508</v>
+        <v>0.0096262989585717</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.3619217911506265</v>
       </c>
       <c r="C40">
-        <v>0.3172798927688401</v>
+        <v>0.3921640651019387</v>
       </c>
       <c r="D40">
-        <v>-0.1620360042329586</v>
+        <v>0.425646334868391</v>
       </c>
       <c r="E40">
-        <v>-0.05295087277370003</v>
+        <v>-0.3808891434229855</v>
       </c>
       <c r="F40">
-        <v>0.2172832614358545</v>
+        <v>0.7049577299700915</v>
       </c>
       <c r="G40">
-        <v>0.1408259476290207</v>
+        <v>-0.1979636122625336</v>
       </c>
       <c r="H40">
-        <v>-0.1193504805531379</v>
+        <v>0.002029828259684563</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.07488417233309869</v>
       </c>
       <c r="C41">
-        <v>-0.4416507143870539</v>
+        <v>0.1460316247142956</v>
       </c>
       <c r="D41">
-        <v>-0.2153538547080182</v>
+        <v>-0.5432921253573036</v>
       </c>
       <c r="E41">
-        <v>0.05699553560713463</v>
+        <v>0.5446700041413717</v>
       </c>
       <c r="F41">
-        <v>0.2449294020176888</v>
+        <v>-0.09386015787386551</v>
       </c>
       <c r="G41">
-        <v>-0.215150322314953</v>
+        <v>-0.09377001350213054</v>
       </c>
       <c r="H41">
-        <v>-0.05333256480010995</v>
+        <v>-0.4328506734947441</v>
       </c>
       <c r="I41">
-        <v>-0.5528389845384107</v>
+        <v>-0.06647071487539868</v>
       </c>
       <c r="J41">
-        <v>-0.1623353957920455</v>
+        <v>0.7315413889119743</v>
       </c>
       <c r="K41">
-        <v>-0.2139550235694794</v>
+        <v>1.029474136650722</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.5876823391013496</v>
       </c>
       <c r="C42">
-        <v>-0.2778015691731892</v>
+        <v>-0.6057398398224747</v>
       </c>
       <c r="D42">
-        <v>0.1665749525372031</v>
+        <v>0.6542494210714401</v>
       </c>
       <c r="E42">
-        <v>0.1588265905781706</v>
+        <v>-0.1799629693133837</v>
       </c>
       <c r="F42">
-        <v>-0.1463036465210553</v>
+        <v>-0.02492333770823285</v>
       </c>
       <c r="G42">
-        <v>-0.03821804288564444</v>
+        <v>-0.4177361515802786</v>
       </c>
       <c r="H42">
-        <v>-0.4705242159507904</v>
+        <v>0.01584405371222172</v>
       </c>
       <c r="I42">
-        <v>-0.0789255491377894</v>
+        <v>0.8149512355662304</v>
       </c>
       <c r="J42">
-        <v>-0.1294328889690706</v>
+        <v>1.11399627125113</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.3279382706492854</v>
       </c>
       <c r="C43">
-        <v>0.07046150505877086</v>
+        <v>0.5581359735930079</v>
       </c>
       <c r="D43">
-        <v>0.1345436221292975</v>
+        <v>-0.2042459377622568</v>
       </c>
       <c r="E43">
-        <v>-0.1329886035157331</v>
+        <v>-0.01160829470291058</v>
       </c>
       <c r="F43">
-        <v>0.007532324561336845</v>
+        <v>-0.3719857841332973</v>
       </c>
       <c r="G43">
-        <v>-0.4696960532498425</v>
+        <v>0.0166722164131696</v>
       </c>
       <c r="H43">
-        <v>-0.1070566421949189</v>
+        <v>0.7868201425091009</v>
       </c>
       <c r="I43">
-        <v>-0.1053022084861877</v>
+        <v>1.138126951734013</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4876744685342371</v>
       </c>
       <c r="C44">
-        <v>0.1866620049133682</v>
+        <v>-0.1521275549781861</v>
       </c>
       <c r="D44">
-        <v>-0.1137254856023037</v>
+        <v>0.007654823210518802</v>
       </c>
       <c r="E44">
-        <v>0.1160857918491774</v>
+        <v>-0.2634323168454567</v>
       </c>
       <c r="F44">
-        <v>-0.352842857885023</v>
+        <v>0.1335254117779891</v>
       </c>
       <c r="G44">
-        <v>-0.01095708918856145</v>
+        <v>0.8829196955154583</v>
       </c>
       <c r="H44">
-        <v>-0.003339242467871956</v>
+        <v>1.240089917752329</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.3387895598915543</v>
       </c>
       <c r="C45">
-        <v>-0.1442459902098335</v>
+        <v>-0.02286568139701101</v>
       </c>
       <c r="D45">
-        <v>0.1273805336644261</v>
+        <v>-0.252137575030208</v>
       </c>
       <c r="E45">
-        <v>-0.2868648305199915</v>
+        <v>0.1995034391430206</v>
       </c>
       <c r="F45">
-        <v>0.04978347302368166</v>
+        <v>0.9436602577277015</v>
       </c>
       <c r="G45">
-        <v>-0.002246235165120153</v>
+        <v>1.241182925055081</v>
       </c>
       <c r="H45">
-        <v>0.2286396232794213</v>
+        <v>-0.9450025040107175</v>
       </c>
       <c r="I45">
-        <v>0.1035383206122849</v>
-      </c>
-      <c r="J45">
-        <v>0.05874224214647061</v>
+        <v>0.6545759639462473</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.1213803088128225</v>
       </c>
       <c r="C46">
-        <v>0.2292388688245442</v>
+        <v>-0.15027923987009</v>
       </c>
       <c r="D46">
-        <v>-0.2989146029880329</v>
+        <v>0.1874536666749792</v>
       </c>
       <c r="E46">
-        <v>-0.006779299208572313</v>
+        <v>0.8870974854954475</v>
       </c>
       <c r="F46">
-        <v>-0.06002942671670045</v>
+        <v>1.1833997335035</v>
       </c>
       <c r="G46">
-        <v>0.2248601498946994</v>
+        <v>-0.9487819773954395</v>
       </c>
       <c r="H46">
-        <v>0.1017437286108369</v>
-      </c>
-      <c r="I46">
-        <v>0.05677114996781335</v>
+        <v>0.6527813719447992</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.3795181086946341</v>
       </c>
       <c r="C47">
-        <v>-0.3769645101010142</v>
+        <v>0.1094037595619979</v>
       </c>
       <c r="D47">
-        <v>0.02523447313776309</v>
+        <v>0.9191112578417829</v>
       </c>
       <c r="E47">
-        <v>-0.06152174412582376</v>
+        <v>1.181907416094377</v>
       </c>
       <c r="F47">
-        <v>0.2209537360237534</v>
+        <v>-0.9526883912663854</v>
       </c>
       <c r="G47">
-        <v>0.097683954288693</v>
-      </c>
-      <c r="H47">
-        <v>0.05272766065322149</v>
+        <v>0.6487215976226554</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.4863682696630121</v>
       </c>
       <c r="C48">
-        <v>0.141809942968818</v>
+        <v>1.035686727672838</v>
       </c>
       <c r="D48">
-        <v>0.07285104845244114</v>
+        <v>1.316280208672642</v>
       </c>
       <c r="E48">
-        <v>0.276488066558835</v>
+        <v>-0.8971540607313038</v>
       </c>
       <c r="F48">
-        <v>0.03006959561185341</v>
-      </c>
-      <c r="G48">
-        <v>-0.01009885779013479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.5811072389458157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.8938767847040198</v>
       </c>
       <c r="C49">
-        <v>-0.06313175209752792</v>
+        <v>1.180297408122673</v>
       </c>
       <c r="D49">
-        <v>0.2326701922977218</v>
+        <v>-0.940971934992417</v>
       </c>
       <c r="E49">
-        <v>0.1175562929459753</v>
-      </c>
-      <c r="F49">
-        <v>0.08293065855823123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.6685939362799377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1.243429160220201</v>
       </c>
       <c r="C50">
-        <v>0.2430537838565618</v>
+        <v>-0.930588343433577</v>
       </c>
       <c r="D50">
-        <v>0.1214429886206967</v>
-      </c>
-      <c r="E50">
-        <v>0.0473873718921948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.672480631954659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1.173642127290139</v>
       </c>
       <c r="C51">
-        <v>0.1549716257524882</v>
-      </c>
-      <c r="D51">
-        <v>0.02251229765779421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.7060092690864506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-0.001688136830620399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.5510376433339623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
